--- a/doc/职级表导入测试模板.xlsx
+++ b/doc/职级表导入测试模板.xlsx
@@ -19,52 +19,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
-  <si>
-    <t>张三0</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>张三1</t>
-  </si>
-  <si>
-    <t>张三2</t>
-  </si>
-  <si>
-    <t>张三3</t>
-  </si>
-  <si>
-    <t>张三4</t>
-  </si>
-  <si>
-    <t>张三5</t>
-  </si>
-  <si>
-    <t>张三6</t>
-  </si>
-  <si>
-    <t>张三7</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>职级名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>职级编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德润</t>
+    <t>职等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是经理1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级经理</t>
+  </si>
+  <si>
+    <t>3级经理</t>
+  </si>
+  <si>
+    <t>4级经理</t>
+  </si>
+  <si>
+    <t>5级经理</t>
+  </si>
+  <si>
+    <t>6级经理</t>
+  </si>
+  <si>
+    <t>7级经理</t>
+  </si>
+  <si>
+    <t>8级经理</t>
+  </si>
+  <si>
+    <t>这是经理2级</t>
+  </si>
+  <si>
+    <t>这是经理3级</t>
+  </si>
+  <si>
+    <t>这是经理4级</t>
+  </si>
+  <si>
+    <t>这是经理5级</t>
+  </si>
+  <si>
+    <t>这是经理6级</t>
+  </si>
+  <si>
+    <t>这是经理7级</t>
+  </si>
+  <si>
+    <t>这是经理8级</t>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -89,6 +119,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,12 +172,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,111 +457,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
